--- a/resources/data-imports/Items/alchemy-goblin-shop.xlsx
+++ b/resources/data-imports/Items/alchemy-goblin-shop.xlsx
@@ -356,8 +356,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,23 +374,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -397,856 +384,841 @@
   </sheetPr>
   <dimension ref="A1:BR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH2" activeCellId="0" sqref="AH2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U9" activeCellId="0" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="177.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="19" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="38.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="177.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="19" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="38.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="19.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>965907</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="X2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="AU2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AU2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2" s="1" t="n">
         <v>0.75</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>713180</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="X3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="0" t="n">
+      <c r="X3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AH3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="0" t="n">
+      <c r="AR3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="AU3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="0" t="n">
+      <c r="AU3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>713181</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="X4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="0" t="n">
+      <c r="X4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AH4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="0" t="n">
+      <c r="AR4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="AU4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="0" t="n">
+      <c r="AU4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="BL4" s="0" t="n">
+      <c r="BL4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>713182</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="0" t="n">
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="X5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="0" t="n">
+      <c r="X5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AH5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="0" t="n">
+      <c r="AR5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="AU5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="0" t="n">
+      <c r="AU5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="BL5" s="0" t="n">
+      <c r="BL5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>713183</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="n">
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="X6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="0" t="n">
+      <c r="X6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AH6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="0" t="n">
+      <c r="AR6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="AU6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="0" t="n">
+      <c r="AU6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="BL6" s="0" t="n">
+      <c r="BL6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>713184</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="0" t="n">
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="X7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="0" t="n">
+      <c r="X7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AH7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="0" t="n">
+      <c r="AR7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="AU7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="0" t="n">
+      <c r="BL7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>965905</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AO8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AO8" s="0" t="n">
+      <c r="AP8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AP8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="0" t="n">
+      <c r="AS8" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="0" t="n">
+      <c r="AU8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AW8" s="0" t="n">
+      <c r="AW8" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="AX8" s="0" t="n">
+      <c r="AX8" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="BL8" s="0" t="n">
+      <c r="BL8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>965906</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AO9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AO9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="0" t="n">
+      <c r="AS9" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="AU9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="0" t="n">
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AW9" s="0" t="n">
+      <c r="AW9" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="AX9" s="0" t="n">
+      <c r="AX9" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL9" s="0" t="n">
+      <c r="BL9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
